--- a/core/seed_products_productsize.xlsx
+++ b/core/seed_products_productsize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC62F7BC-F1BB-4010-8353-ABFE3B0BC109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17757D1E-3E17-48D5-883C-6820CA164C23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A15"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,6 +961,41 @@
         <v>10</v>
       </c>
     </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
